--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.765999999999995</v>
+        <v>-7.897799999999997</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.174599999999998</v>
+        <v>5.212499999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.03670000000001</v>
+        <v>16.3806</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.86620000000001</v>
+        <v>-21.79930000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.8103</v>
+        <v>16.6931</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.344699999999998</v>
+        <v>5.525299999999995</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.66520000000001</v>
+        <v>16.53400000000001</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.9563</v>
+        <v>5.975599999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-9.007099999999998</v>
+        <v>-8.947699999999996</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>15.7849</v>
+        <v>15.94020000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.18490000000001</v>
+        <v>-22.28160000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.20699999999999</v>
+        <v>-18.92629999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.03679999999999</v>
+        <v>16.07989999999998</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.5372</v>
+        <v>16.66160000000001</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.133300000000003</v>
+        <v>4.010500000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.56729999999998</v>
+        <v>-21.62869999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>4.882800000000004</v>
+        <v>5.241000000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.9403</v>
+        <v>5.025999999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.984200000000003</v>
+        <v>-7.934499999999996</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-18.8105</v>
+        <v>-18.7718</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.22159999999999</v>
+        <v>-9.187599999999991</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.844100000000005</v>
+        <v>9.102600000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.426100000000002</v>
+        <v>4.383200000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-9.0276</v>
+        <v>-8.978399999999995</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.22889999999999</v>
+        <v>16.1727</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.232400000000002</v>
+        <v>-8.2437</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.246099999999997</v>
+        <v>-7.2748</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,10 +1236,10 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.662600000000002</v>
+        <v>-7.820600000000002</v>
       </c>
       <c r="E47" t="n">
-        <v>16.71560000000001</v>
+        <v>16.73930000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.4632</v>
+        <v>17.5515</v>
       </c>
     </row>
     <row r="49">
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.680100000000001</v>
+        <v>5.737500000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.523199999999998</v>
+        <v>-7.658399999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.225799999999998</v>
+        <v>5.254899999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.151</v>
+        <v>17.2073</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.381299999999999</v>
+        <v>5.130199999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.6835</v>
+        <v>16.67960000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.590700000000004</v>
+        <v>-8.5425</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-8.138399999999997</v>
+        <v>-7.888599999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6857</v>
+        <v>-21.65709999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.348499999999994</v>
+        <v>5.468799999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.298400000000002</v>
+        <v>6.910700000000002</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.116299999999999</v>
+        <v>-7.2488</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.55149999999999</v>
+        <v>-19.48559999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.82779999999998</v>
+        <v>-19.82919999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.436900000000001</v>
+        <v>5.477600000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.97550000000002</v>
+        <v>-21.90200000000002</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8663</v>
+        <v>-21.9166</v>
       </c>
       <c r="B83" t="n">
-        <v>5.960500000000001</v>
+        <v>6.145100000000002</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.96529999999998</v>
+        <v>16.8891</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.373699999999996</v>
+        <v>-7.498099999999995</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.35199999999998</v>
+        <v>-20.49409999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.826699999999997</v>
+        <v>-7.992199999999996</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.3096</v>
+        <v>16.45480000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.75310000000001</v>
+        <v>16.76030000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.567000000000007</v>
+        <v>8.775300000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
